--- a/data/trans_camb/P16A18-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Clase-trans_camb.xlsx
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 4,04</t>
+          <t>-5,81; 4,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,57; -2,65</t>
+          <t>-11,6; -2,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,0; -6,21</t>
+          <t>-13,75; -6,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 4,04</t>
+          <t>-5,81; 4,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,57; -2,65</t>
+          <t>-11,6; -2,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-14,0; -6,21</t>
+          <t>-13,75; -6,27</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,05; 46,13</t>
+          <t>-42,0; 50,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-75,4; -24,85</t>
+          <t>-77,34; -25,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-93,39; -67,46</t>
+          <t>-93,65; -66,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,05; 46,13</t>
+          <t>-42,0; 50,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-75,4; -24,85</t>
+          <t>-77,34; -25,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-93,39; -67,46</t>
+          <t>-93,65; -66,63</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 0,74</t>
+          <t>-8,84; 0,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,89; -0,65</t>
+          <t>-9,17; -0,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,75; -5,04</t>
+          <t>-12,9; -5,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 0,74</t>
+          <t>-8,84; 0,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,89; -0,65</t>
+          <t>-9,17; -0,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,75; -5,04</t>
+          <t>-12,9; -5,19</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,83; 8,86</t>
+          <t>-60,69; 7,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-61,66; -2,76</t>
+          <t>-63,18; -3,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-88,02; -49,97</t>
+          <t>-87,45; -48,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-58,83; 8,86</t>
+          <t>-60,69; 7,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-61,66; -2,76</t>
+          <t>-63,18; -3,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-88,02; -49,97</t>
+          <t>-87,45; -48,61</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 4,38</t>
+          <t>-5,2; 4,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 2,58</t>
+          <t>-6,55; 2,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 1,63</t>
+          <t>-6,72; 1,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 4,38</t>
+          <t>-5,2; 4,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 2,58</t>
+          <t>-6,55; 2,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 1,63</t>
+          <t>-6,72; 1,91</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-59,0; 133,45</t>
+          <t>-58,76; 123,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-79,91; 101,34</t>
+          <t>-81,83; 71,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-83,44; 80,23</t>
+          <t>-85,54; 91,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-59,0; 133,45</t>
+          <t>-58,76; 123,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-79,91; 101,34</t>
+          <t>-81,83; 71,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-83,44; 80,23</t>
+          <t>-85,54; 91,03</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 3,88</t>
+          <t>-1,85; 4,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 0,06</t>
+          <t>-4,94; -0,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,41; -2,86</t>
+          <t>-7,82; -3,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 3,88</t>
+          <t>-1,85; 4,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 0,06</t>
+          <t>-4,94; -0,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,41; -2,86</t>
+          <t>-7,82; -3,09</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,81; 65,11</t>
+          <t>-20,04; 69,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-51,43; 4,14</t>
+          <t>-54,33; -0,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-83,99; -46,16</t>
+          <t>-85,53; -50,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,81; 65,11</t>
+          <t>-20,04; 69,74</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-51,43; 4,14</t>
+          <t>-54,33; -0,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-83,99; -46,16</t>
+          <t>-85,53; -50,18</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 1,63</t>
+          <t>-3,39; 2,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,37; -0,52</t>
+          <t>-5,17; -0,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,47; -2,9</t>
+          <t>-7,54; -2,98</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 1,63</t>
+          <t>-3,39; 2,07</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,37; -0,52</t>
+          <t>-5,17; -0,14</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,47; -2,9</t>
+          <t>-7,54; -2,98</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-47,01; 37,75</t>
+          <t>-45,23; 50,54</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-67,91; -7,95</t>
+          <t>-67,17; -1,25</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-92,16; -62,69</t>
+          <t>-92,93; -66,32</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-47,01; 37,75</t>
+          <t>-45,23; 50,54</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-67,91; -7,95</t>
+          <t>-67,17; -1,25</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-92,16; -62,69</t>
+          <t>-92,93; -66,32</t>
         </is>
       </c>
     </row>
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,4</t>
+          <t>0,3; 3,47</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 1,34</t>
+          <t>-1,41; 1,43</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,71; -1,58</t>
+          <t>-3,62; -1,52</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,4</t>
+          <t>0,3; 3,47</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 1,34</t>
+          <t>-1,41; 1,43</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,71; -1,58</t>
+          <t>-3,62; -1,52</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>7,83; 149,47</t>
+          <t>7,09; 148,48</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-36,74; 58,2</t>
+          <t>-38,91; 60,24</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-97,85; -46,31</t>
+          <t>-98,0; -51,91</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>7,83; 149,47</t>
+          <t>7,09; 148,48</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-36,74; 58,2</t>
+          <t>-38,91; 60,24</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-97,85; -46,31</t>
+          <t>-98,0; -51,91</t>
         </is>
       </c>
     </row>
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 1,47</t>
+          <t>-0,99; 1,39</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,16; -1,11</t>
+          <t>-3,16; -1,09</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,71; -3,66</t>
+          <t>-5,7; -3,73</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 1,47</t>
+          <t>-0,99; 1,39</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,16; -1,11</t>
+          <t>-3,16; -1,09</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-5,71; -3,66</t>
+          <t>-5,7; -3,73</t>
         </is>
       </c>
     </row>
@@ -2102,32 +2102,32 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 25,61</t>
+          <t>-14,6; 23,72</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-45,06; -18,62</t>
+          <t>-45,49; -18,68</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-80,76; -63,35</t>
+          <t>-81,45; -64,1</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 25,61</t>
+          <t>-14,6; 23,72</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-45,06; -18,62</t>
+          <t>-45,49; -18,68</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-80,76; -63,35</t>
+          <t>-81,45; -64,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A18-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
